--- a/exports/06_evaluation_samples/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
+++ b/exports/06_evaluation_samples/FN_Event_Name_LLM_Events_example_evidence_Sent_Sleep.xlsx
@@ -271,7 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -285,6 +285,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -307,32 +314,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1589,7 +1589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>538</v>
       </c>
